--- a/CRM/CustomData.xlsx
+++ b/CRM/CustomData.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">客戶名稱</t>
   </si>
@@ -35,67 +32,25 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">是否已刪除</t>
+    <t xml:space="preserve">客戶分類</t>
   </si>
   <si>
-    <t xml:space="preserve">客戶分類ID</t>
+    <t xml:space="preserve">多奇</t>
   </si>
   <si>
-    <t xml:space="preserve">客戶銀行資訊</t>
+    <t xml:space="preserve">123123  </t>
   </si>
   <si>
-    <t xml:space="preserve">客戶聯絡人</t>
+    <t xml:space="preserve">02-22131345</t>
   </si>
   <si>
-    <t xml:space="preserve">客戶分類對照表</t>
+    <t xml:space="preserve">adfaf</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">ediuxcity@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">宇鴻系統科技有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54359258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-25681570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-25681577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台北市中山北路二段99號4樓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edward@holdingforce.com.tw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Collections.Generic.HashSet`1[CRM.Models.客戶銀行資訊]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Collections.Generic.HashSet`1[CRM.Models.客戶聯絡人]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多奇數位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12312312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-1223123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-22343512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123123</t>
+    <t xml:space="preserve">資訊服務業</t>
   </si>
 </sst>
 </file>
@@ -167,84 +122,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
